--- a/data/output/mean_rfm_cluster.xlsx
+++ b/data/output/mean_rfm_cluster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,94 +436,134 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ClusterLabel</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Recency</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Monetary</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BONS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>34.01807228915663</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>7.240963855421687</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2427.105060240964</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FREQUENTES</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>23.07547169811321</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>15.0377358490566</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2734.687547169811</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MEDIANOS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>49.68784227820372</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>3.894852135815991</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1306.858083242059</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PERDIDOS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>251.276359600444</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>1.429522752497225</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>384.7814983351831</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>POSSÍVEL PERDA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>54.16165664662659</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>1.64128256513026</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>417.0540948563794</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PREMIUM</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>14.45132743362832</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>25.86725663716814</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>17147.66380530973</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ÓTIMOS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>47.91370558375635</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>7.187817258883249</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>6498.451827411168</v>
       </c>
     </row>

--- a/data/output/mean_rfm_cluster.xlsx
+++ b/data/output/mean_rfm_cluster.xlsx
@@ -458,81 +458,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BONS</t>
+          <t>ALERTA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.01807228915663</v>
+        <v>54.16165664662659</v>
       </c>
       <c r="C2" t="n">
-        <v>7.240963855421687</v>
+        <v>1.64128256513026</v>
       </c>
       <c r="D2" t="n">
-        <v>2427.105060240964</v>
+        <v>417.0540948563794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FREQUENTES</t>
+          <t>BONS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.07547169811321</v>
+        <v>34.01807228915663</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0377358490566</v>
+        <v>7.240963855421687</v>
       </c>
       <c r="D3" t="n">
-        <v>2734.687547169811</v>
+        <v>2427.105060240964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MEDIANOS</t>
+          <t>FREQUENTES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.68784227820372</v>
+        <v>23.07547169811321</v>
       </c>
       <c r="C4" t="n">
-        <v>3.894852135815991</v>
+        <v>15.0377358490566</v>
       </c>
       <c r="D4" t="n">
-        <v>1306.858083242059</v>
+        <v>2734.687547169811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PERDIDOS</t>
+          <t>MEDIANOS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.276359600444</v>
+        <v>49.68784227820372</v>
       </c>
       <c r="C5" t="n">
-        <v>1.429522752497225</v>
+        <v>3.894852135815991</v>
       </c>
       <c r="D5" t="n">
-        <v>384.7814983351831</v>
+        <v>1306.858083242059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>POSSÍVEL PERDA</t>
+          <t>PERDIDOS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.16165664662659</v>
+        <v>251.276359600444</v>
       </c>
       <c r="C6" t="n">
-        <v>1.64128256513026</v>
+        <v>1.429522752497225</v>
       </c>
       <c r="D6" t="n">
-        <v>417.0540948563794</v>
+        <v>384.7814983351831</v>
       </c>
     </row>
     <row r="7">
